--- a/data-raw/Exportfile_M1_en.xlsx
+++ b/data-raw/Exportfile_M1_en.xlsx
@@ -2861,7 +2861,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E25" s="69">
-        <x:v>45586</x:v>
+        <x:v>45588</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:24">
@@ -3065,12 +3065,8 @@
       <x:c r="F2" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G2" s="2" t="n"/>
+      <x:c r="H2" s="2" t="n"/>
       <x:c r="I2" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3133,12 +3129,8 @@
       <x:c r="F3" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G3" s="2" t="n"/>
+      <x:c r="H3" s="2" t="n"/>
       <x:c r="I3" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3201,12 +3193,8 @@
       <x:c r="F4" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G4" s="2" t="n"/>
+      <x:c r="H4" s="2" t="n"/>
       <x:c r="I4" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3269,12 +3257,8 @@
       <x:c r="F5" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G5" s="2" t="n"/>
+      <x:c r="H5" s="2" t="n"/>
       <x:c r="I5" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3337,12 +3321,8 @@
       <x:c r="F6" s="6" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="G6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H6" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="G6" s="2" t="n"/>
+      <x:c r="H6" s="2" t="n"/>
       <x:c r="I6" s="4" t="n">
         <x:v>100</x:v>
       </x:c>
